--- a/biology/Zoologie/Haementeria/Haementeria.xlsx
+++ b/biology/Zoologie/Haementeria/Haementeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hæmenteria est un genre de sangsues d'eau douce à trompe de la famille des Glossiphoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces sangsues se rencontrent en Europe et en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sangsues se rencontrent en Europe et en Amérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 avril 2024) :
 Haementeria acuecueyetzin
 Haementeria depressa
 Haementeria ghilianii Filippi, 1849
@@ -582,9 +598,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Haementeria de Filippi, 1849[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Haementeria de Filippi, 1849.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) Filippo De Filippi, « Sopra un nuovo genere (Haementeria) di anellidi della famiglia delle sanguisughe », Memorie della Reale Accademia delle Scienze di Torino, 2e série, vol. 2,‎ 1849, p. 391–402 (lire en ligne)</t>
         </is>
